--- a/benchmark/bionetwork/chris_group/jai_example/Oriole_compare_table.xlsx
+++ b/benchmark/bionetwork/chris_group/jai_example/Oriole_compare_table.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-Study\Boston University\Research\CIDAR-lab\2023\oriole\benchmark\bionetwork\chris_group\jai_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF138035-B3E3-43A6-8467-E6872E24E8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181EA243-6B4D-49EA-8F1D-34ED441EA5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="william_partition_num_cells_dat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -210,17 +210,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,144 +614,144 @@
   <dimension ref="A1:EK142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
-      <c r="CL1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CN1" s="2"/>
-      <c r="CO1" s="2"/>
-      <c r="CP1" s="2"/>
-      <c r="CQ1" s="2"/>
-      <c r="CR1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
-      <c r="CU1" s="2"/>
-      <c r="CV1" s="2"/>
-      <c r="CW1" s="2"/>
-      <c r="CX1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="CZ1" s="2"/>
-      <c r="DA1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DC1" s="2"/>
-      <c r="DD1" s="2"/>
-      <c r="DE1" s="2"/>
-      <c r="DF1" s="2"/>
-      <c r="DG1" s="2"/>
-      <c r="DH1" s="2"/>
-      <c r="DI1" s="2"/>
-      <c r="DJ1" s="2"/>
-      <c r="DK1" s="2"/>
-      <c r="DL1" s="2"/>
-      <c r="DM1" s="2"/>
-      <c r="DN1" s="2"/>
-      <c r="DO1" s="2"/>
-      <c r="DP1" s="2"/>
-      <c r="DQ1" s="2"/>
-      <c r="DR1" s="2"/>
-      <c r="DS1" s="2"/>
-      <c r="DT1" s="2"/>
-      <c r="DU1" s="2"/>
-      <c r="DV1" s="2"/>
-      <c r="DW1" s="2"/>
-      <c r="DX1" s="2"/>
-      <c r="DY1" s="2"/>
-      <c r="DZ1" s="2"/>
-      <c r="EA1" s="2"/>
-      <c r="EB1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="3"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="3"/>
+      <c r="DE1" s="3"/>
+      <c r="DF1" s="3"/>
+      <c r="DG1" s="3"/>
+      <c r="DH1" s="3"/>
+      <c r="DI1" s="3"/>
+      <c r="DJ1" s="3"/>
+      <c r="DK1" s="3"/>
+      <c r="DL1" s="3"/>
+      <c r="DM1" s="3"/>
+      <c r="DN1" s="3"/>
+      <c r="DO1" s="3"/>
+      <c r="DP1" s="3"/>
+      <c r="DQ1" s="3"/>
+      <c r="DR1" s="3"/>
+      <c r="DS1" s="3"/>
+      <c r="DT1" s="3"/>
+      <c r="DU1" s="3"/>
+      <c r="DV1" s="3"/>
+      <c r="DW1" s="3"/>
+      <c r="DX1" s="3"/>
+      <c r="DY1" s="3"/>
+      <c r="DZ1" s="3"/>
+      <c r="EA1" s="3"/>
+      <c r="EB1" s="3"/>
     </row>
     <row r="2" spans="1:141" x14ac:dyDescent="0.25">
       <c r="C2">
@@ -1267,7 +1275,7 @@
       </c>
     </row>
     <row r="3" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B3">
@@ -1692,7 +1700,7 @@
       </c>
     </row>
     <row r="4" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="4"/>
       <c r="B4">
         <f t="shared" ref="B4:B35" si="4">B3+1</f>
         <v>2</v>
@@ -1706,28 +1714,28 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
         <v>66</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>66</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>66</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>66</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="7">
         <v>66</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="7">
         <v>66</v>
       </c>
       <c r="N4">
@@ -2116,7 +2124,7 @@
       </c>
     </row>
     <row r="5" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="4"/>
       <c r="B5">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2130,28 +2138,28 @@
       <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
         <v>52</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
         <v>44</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7">
         <v>44</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>44</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="7">
         <v>44</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="7">
         <v>44</v>
       </c>
       <c r="N5">
@@ -2540,7 +2548,7 @@
       </c>
     </row>
     <row r="6" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="4"/>
       <c r="B6">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2554,28 +2562,28 @@
       <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N6">
@@ -2964,7 +2972,7 @@
       </c>
     </row>
     <row r="7" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="4"/>
       <c r="B7">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2978,28 +2986,28 @@
       <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>30</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N7">
@@ -3388,7 +3396,7 @@
       </c>
     </row>
     <row r="8" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="4"/>
       <c r="B8">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3402,28 +3410,28 @@
       <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>24</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N8">
@@ -3812,7 +3820,7 @@
       </c>
     </row>
     <row r="9" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="4"/>
       <c r="B9">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -3826,28 +3834,28 @@
       <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>36</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <v>21</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N9">
@@ -4236,7 +4244,7 @@
       </c>
     </row>
     <row r="10" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="4"/>
       <c r="B10">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -4250,28 +4258,28 @@
       <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>36</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="7">
         <v>19</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="N10">
@@ -4660,7 +4668,7 @@
       </c>
     </row>
     <row r="11" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="4"/>
       <c r="B11">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -4674,28 +4682,28 @@
       <c r="E11" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>36</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N11">
@@ -5084,7 +5092,7 @@
       </c>
     </row>
     <row r="12" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="4"/>
       <c r="B12">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -5098,28 +5106,28 @@
       <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>63</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="7">
         <v>16</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="7">
         <v>15</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="N12">
@@ -5508,7 +5516,7 @@
       </c>
     </row>
     <row r="13" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="4"/>
       <c r="B13">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -5522,28 +5530,28 @@
       <c r="E13" t="s">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>62</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>35</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="7">
         <v>15</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="7">
         <v>13</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="7">
         <v>13</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="7">
         <v>12</v>
       </c>
       <c r="N13">
@@ -5932,7 +5940,7 @@
       </c>
     </row>
     <row r="14" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="4"/>
       <c r="B14">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -5946,28 +5954,28 @@
       <c r="E14" t="s">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>62</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>33</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="7">
         <v>14</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="7">
         <v>13</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="7">
         <v>12</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="7">
         <v>12</v>
       </c>
       <c r="N14">
@@ -6356,7 +6364,7 @@
       </c>
     </row>
     <row r="15" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="4"/>
       <c r="B15">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -6370,28 +6378,28 @@
       <c r="E15" t="s">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>62</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>33</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="7">
         <v>13</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="7">
         <v>12</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="7">
         <v>11</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="7">
         <v>11</v>
       </c>
       <c r="N15">
@@ -6780,7 +6788,7 @@
       </c>
     </row>
     <row r="16" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="4"/>
       <c r="B16">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -6794,28 +6802,28 @@
       <c r="E16" t="s">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>62</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>33</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>16</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="7">
         <v>13</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="7">
         <v>11</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="7">
         <v>11</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="7">
         <v>10</v>
       </c>
       <c r="N16">
@@ -7204,7 +7212,7 @@
       </c>
     </row>
     <row r="17" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="4"/>
       <c r="B17">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -7218,28 +7226,28 @@
       <c r="E17" t="s">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>62</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>32</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>16</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="7">
         <v>13</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="7">
         <v>11</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="7">
         <v>11</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="7">
         <v>10</v>
       </c>
       <c r="N17">
@@ -7628,7 +7636,7 @@
       </c>
     </row>
     <row r="18" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="4"/>
       <c r="B18">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -7642,28 +7650,28 @@
       <c r="E18" t="s">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>62</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>32</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>16</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="7">
         <v>13</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="7">
         <v>11</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="7">
         <v>10</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="7">
         <v>9</v>
       </c>
       <c r="N18">
@@ -8052,7 +8060,7 @@
       </c>
     </row>
     <row r="19" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="4"/>
       <c r="B19">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -8476,7 +8484,7 @@
       </c>
     </row>
     <row r="20" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="4"/>
       <c r="B20">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -8900,7 +8908,7 @@
       </c>
     </row>
     <row r="21" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="4"/>
       <c r="B21">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -9324,7 +9332,7 @@
       </c>
     </row>
     <row r="22" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="4"/>
       <c r="B22">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -9748,7 +9756,7 @@
       </c>
     </row>
     <row r="23" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="4"/>
       <c r="B23">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -10172,7 +10180,7 @@
       </c>
     </row>
     <row r="24" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="4"/>
       <c r="B24">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -10596,7 +10604,7 @@
       </c>
     </row>
     <row r="25" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="4"/>
       <c r="B25">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -11020,7 +11028,7 @@
       </c>
     </row>
     <row r="26" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="4"/>
       <c r="B26">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -11444,7 +11452,7 @@
       </c>
     </row>
     <row r="27" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="4"/>
       <c r="B27">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -11868,7 +11876,7 @@
       </c>
     </row>
     <row r="28" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="4"/>
       <c r="B28">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -12292,7 +12300,7 @@
       </c>
     </row>
     <row r="29" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="4"/>
       <c r="B29">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -12716,7 +12724,7 @@
       </c>
     </row>
     <row r="30" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="4"/>
       <c r="B30">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -13140,7 +13148,7 @@
       </c>
     </row>
     <row r="31" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="4"/>
       <c r="B31">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -13564,7 +13572,7 @@
       </c>
     </row>
     <row r="32" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="4"/>
       <c r="B32">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -13988,7 +13996,7 @@
       </c>
     </row>
     <row r="33" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="4"/>
       <c r="B33">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -14412,7 +14420,7 @@
       </c>
     </row>
     <row r="34" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="4"/>
       <c r="B34">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -14836,7 +14844,7 @@
       </c>
     </row>
     <row r="35" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="4"/>
       <c r="B35">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -15260,7 +15268,7 @@
       </c>
     </row>
     <row r="36" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="4"/>
       <c r="B36">
         <f t="shared" ref="B36:B67" si="5">B35+1</f>
         <v>34</v>
@@ -15684,7 +15692,7 @@
       </c>
     </row>
     <row r="37" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="4"/>
       <c r="B37">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -16108,7 +16116,7 @@
       </c>
     </row>
     <row r="38" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="4"/>
       <c r="B38">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -16532,7 +16540,7 @@
       </c>
     </row>
     <row r="39" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="4"/>
       <c r="B39">
         <f t="shared" si="5"/>
         <v>37</v>
@@ -16956,7 +16964,7 @@
       </c>
     </row>
     <row r="40" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="4"/>
       <c r="B40">
         <f t="shared" si="5"/>
         <v>38</v>
@@ -17380,7 +17388,7 @@
       </c>
     </row>
     <row r="41" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="4"/>
       <c r="B41">
         <f t="shared" si="5"/>
         <v>39</v>
@@ -17804,7 +17812,7 @@
       </c>
     </row>
     <row r="42" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="4"/>
       <c r="B42">
         <f t="shared" si="5"/>
         <v>40</v>
@@ -18228,7 +18236,7 @@
       </c>
     </row>
     <row r="43" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="4"/>
       <c r="B43">
         <f t="shared" si="5"/>
         <v>41</v>
@@ -18652,7 +18660,7 @@
       </c>
     </row>
     <row r="44" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="4"/>
       <c r="B44">
         <f t="shared" si="5"/>
         <v>42</v>
@@ -19076,7 +19084,7 @@
       </c>
     </row>
     <row r="45" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="4"/>
       <c r="B45">
         <f t="shared" si="5"/>
         <v>43</v>
@@ -19500,7 +19508,7 @@
       </c>
     </row>
     <row r="46" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="4"/>
       <c r="B46">
         <f t="shared" si="5"/>
         <v>44</v>
@@ -19924,7 +19932,7 @@
       </c>
     </row>
     <row r="47" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="4"/>
       <c r="B47">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -20348,7 +20356,7 @@
       </c>
     </row>
     <row r="48" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="4"/>
       <c r="B48">
         <f t="shared" si="5"/>
         <v>46</v>
@@ -20772,7 +20780,7 @@
       </c>
     </row>
     <row r="49" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="4"/>
       <c r="B49">
         <f t="shared" si="5"/>
         <v>47</v>
@@ -21196,7 +21204,7 @@
       </c>
     </row>
     <row r="50" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="4"/>
       <c r="B50">
         <f t="shared" si="5"/>
         <v>48</v>
@@ -21620,7 +21628,7 @@
       </c>
     </row>
     <row r="51" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="4"/>
       <c r="B51">
         <f t="shared" si="5"/>
         <v>49</v>
@@ -22044,7 +22052,7 @@
       </c>
     </row>
     <row r="52" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="4"/>
       <c r="B52">
         <f t="shared" si="5"/>
         <v>50</v>
@@ -22468,7 +22476,7 @@
       </c>
     </row>
     <row r="53" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="4"/>
       <c r="B53">
         <f t="shared" si="5"/>
         <v>51</v>
@@ -22892,7 +22900,7 @@
       </c>
     </row>
     <row r="54" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="4"/>
       <c r="B54">
         <f t="shared" si="5"/>
         <v>52</v>
@@ -23316,7 +23324,7 @@
       </c>
     </row>
     <row r="55" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="4"/>
       <c r="B55">
         <f t="shared" si="5"/>
         <v>53</v>
@@ -23740,7 +23748,7 @@
       </c>
     </row>
     <row r="56" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="4"/>
       <c r="B56">
         <f t="shared" si="5"/>
         <v>54</v>
@@ -24164,7 +24172,7 @@
       </c>
     </row>
     <row r="57" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="4"/>
       <c r="B57">
         <f t="shared" si="5"/>
         <v>55</v>
@@ -24588,7 +24596,7 @@
       </c>
     </row>
     <row r="58" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="4"/>
       <c r="B58">
         <f t="shared" si="5"/>
         <v>56</v>
@@ -25012,7 +25020,7 @@
       </c>
     </row>
     <row r="59" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="4"/>
       <c r="B59">
         <f t="shared" si="5"/>
         <v>57</v>
@@ -25436,7 +25444,7 @@
       </c>
     </row>
     <row r="60" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="4"/>
       <c r="B60">
         <f t="shared" si="5"/>
         <v>58</v>
@@ -25860,7 +25868,7 @@
       </c>
     </row>
     <row r="61" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="4"/>
       <c r="B61">
         <f t="shared" si="5"/>
         <v>59</v>
@@ -26284,7 +26292,7 @@
       </c>
     </row>
     <row r="62" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="4"/>
       <c r="B62">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -26708,7 +26716,7 @@
       </c>
     </row>
     <row r="63" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="4"/>
       <c r="B63">
         <f t="shared" si="5"/>
         <v>61</v>
@@ -27132,7 +27140,7 @@
       </c>
     </row>
     <row r="64" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="4"/>
       <c r="B64">
         <f t="shared" si="5"/>
         <v>62</v>
@@ -27556,7 +27564,7 @@
       </c>
     </row>
     <row r="65" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="4"/>
       <c r="B65">
         <f t="shared" si="5"/>
         <v>63</v>
@@ -27980,7 +27988,7 @@
       </c>
     </row>
     <row r="66" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="4"/>
       <c r="B66">
         <f t="shared" si="5"/>
         <v>64</v>
@@ -28404,7 +28412,7 @@
       </c>
     </row>
     <row r="67" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="4"/>
       <c r="B67">
         <f t="shared" si="5"/>
         <v>65</v>
@@ -28828,7 +28836,7 @@
       </c>
     </row>
     <row r="68" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="4"/>
       <c r="B68">
         <f t="shared" ref="B68:B99" si="6">B67+1</f>
         <v>66</v>
@@ -29252,7 +29260,7 @@
       </c>
     </row>
     <row r="69" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="4"/>
       <c r="B69">
         <f t="shared" si="6"/>
         <v>67</v>
@@ -29676,7 +29684,7 @@
       </c>
     </row>
     <row r="70" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="4"/>
       <c r="B70">
         <f t="shared" si="6"/>
         <v>68</v>
@@ -30100,7 +30108,7 @@
       </c>
     </row>
     <row r="71" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="4"/>
       <c r="B71">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -30524,7 +30532,7 @@
       </c>
     </row>
     <row r="72" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="4"/>
       <c r="B72">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -30948,7 +30956,7 @@
       </c>
     </row>
     <row r="73" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="4"/>
       <c r="B73">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -31372,7 +31380,7 @@
       </c>
     </row>
     <row r="74" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="4"/>
       <c r="B74">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -31796,7 +31804,7 @@
       </c>
     </row>
     <row r="75" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="4"/>
       <c r="B75">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -32220,7 +32228,7 @@
       </c>
     </row>
     <row r="76" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="4"/>
       <c r="B76">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -32644,7 +32652,7 @@
       </c>
     </row>
     <row r="77" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="4"/>
       <c r="B77">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -33068,7 +33076,7 @@
       </c>
     </row>
     <row r="78" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="4"/>
       <c r="B78">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -33492,7 +33500,7 @@
       </c>
     </row>
     <row r="79" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="4"/>
       <c r="B79">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -33916,7 +33924,7 @@
       </c>
     </row>
     <row r="80" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="4"/>
       <c r="B80">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -34340,7 +34348,7 @@
       </c>
     </row>
     <row r="81" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="4"/>
       <c r="B81">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -34764,7 +34772,7 @@
       </c>
     </row>
     <row r="82" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="4"/>
       <c r="B82">
         <f t="shared" si="6"/>
         <v>80</v>
@@ -35188,7 +35196,7 @@
       </c>
     </row>
     <row r="83" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="4"/>
       <c r="B83">
         <f t="shared" si="6"/>
         <v>81</v>
@@ -35612,7 +35620,7 @@
       </c>
     </row>
     <row r="84" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="4"/>
       <c r="B84">
         <f t="shared" si="6"/>
         <v>82</v>
@@ -36036,7 +36044,7 @@
       </c>
     </row>
     <row r="85" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="4"/>
       <c r="B85">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -36460,7 +36468,7 @@
       </c>
     </row>
     <row r="86" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="4"/>
       <c r="B86">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -36884,7 +36892,7 @@
       </c>
     </row>
     <row r="87" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="4"/>
       <c r="B87">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -37308,7 +37316,7 @@
       </c>
     </row>
     <row r="88" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="4"/>
       <c r="B88">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -37732,7 +37740,7 @@
       </c>
     </row>
     <row r="89" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="4"/>
       <c r="B89">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -38156,7 +38164,7 @@
       </c>
     </row>
     <row r="90" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="4"/>
       <c r="B90">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -38580,7 +38588,7 @@
       </c>
     </row>
     <row r="91" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="4"/>
       <c r="B91">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -39004,7 +39012,7 @@
       </c>
     </row>
     <row r="92" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="4"/>
       <c r="B92">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -39428,7 +39436,7 @@
       </c>
     </row>
     <row r="93" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="4"/>
       <c r="B93">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -39852,7 +39860,7 @@
       </c>
     </row>
     <row r="94" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="4"/>
       <c r="B94">
         <f t="shared" si="6"/>
         <v>92</v>
@@ -40276,7 +40284,7 @@
       </c>
     </row>
     <row r="95" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="4"/>
       <c r="B95">
         <f t="shared" si="6"/>
         <v>93</v>
@@ -40700,7 +40708,7 @@
       </c>
     </row>
     <row r="96" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="4"/>
       <c r="B96">
         <f t="shared" si="6"/>
         <v>94</v>
@@ -41124,7 +41132,7 @@
       </c>
     </row>
     <row r="97" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="A97" s="4"/>
       <c r="B97">
         <f t="shared" si="6"/>
         <v>95</v>
@@ -41548,7 +41556,7 @@
       </c>
     </row>
     <row r="98" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="4"/>
       <c r="B98">
         <f t="shared" si="6"/>
         <v>96</v>
@@ -41972,7 +41980,7 @@
       </c>
     </row>
     <row r="99" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="4"/>
       <c r="B99">
         <f t="shared" si="6"/>
         <v>97</v>
@@ -42396,7 +42404,7 @@
       </c>
     </row>
     <row r="100" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="4"/>
       <c r="B100">
         <f t="shared" ref="B100:B131" si="7">B99+1</f>
         <v>98</v>
@@ -42820,7 +42828,7 @@
       </c>
     </row>
     <row r="101" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="4"/>
       <c r="B101">
         <f t="shared" si="7"/>
         <v>99</v>
@@ -43244,7 +43252,7 @@
       </c>
     </row>
     <row r="102" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="A102" s="4"/>
       <c r="B102">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -43668,7 +43676,7 @@
       </c>
     </row>
     <row r="103" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
+      <c r="A103" s="4"/>
       <c r="B103">
         <f t="shared" si="7"/>
         <v>101</v>
@@ -44092,7 +44100,7 @@
       </c>
     </row>
     <row r="104" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
+      <c r="A104" s="4"/>
       <c r="B104">
         <f t="shared" si="7"/>
         <v>102</v>
@@ -44516,7 +44524,7 @@
       </c>
     </row>
     <row r="105" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
+      <c r="A105" s="4"/>
       <c r="B105">
         <f t="shared" si="7"/>
         <v>103</v>
@@ -44940,7 +44948,7 @@
       </c>
     </row>
     <row r="106" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+      <c r="A106" s="4"/>
       <c r="B106">
         <f t="shared" si="7"/>
         <v>104</v>
@@ -45364,7 +45372,7 @@
       </c>
     </row>
     <row r="107" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="A107" s="4"/>
       <c r="B107">
         <f t="shared" si="7"/>
         <v>105</v>
@@ -45788,7 +45796,7 @@
       </c>
     </row>
     <row r="108" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="A108" s="4"/>
       <c r="B108">
         <f t="shared" si="7"/>
         <v>106</v>
@@ -46212,7 +46220,7 @@
       </c>
     </row>
     <row r="109" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+      <c r="A109" s="4"/>
       <c r="B109">
         <f t="shared" si="7"/>
         <v>107</v>
@@ -46636,7 +46644,7 @@
       </c>
     </row>
     <row r="110" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="A110" s="4"/>
       <c r="B110">
         <f t="shared" si="7"/>
         <v>108</v>
@@ -47060,7 +47068,7 @@
       </c>
     </row>
     <row r="111" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+      <c r="A111" s="4"/>
       <c r="B111">
         <f t="shared" si="7"/>
         <v>109</v>
@@ -47484,7 +47492,7 @@
       </c>
     </row>
     <row r="112" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+      <c r="A112" s="4"/>
       <c r="B112">
         <f t="shared" si="7"/>
         <v>110</v>
@@ -47908,7 +47916,7 @@
       </c>
     </row>
     <row r="113" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+      <c r="A113" s="4"/>
       <c r="B113">
         <f t="shared" si="7"/>
         <v>111</v>
@@ -48332,7 +48340,7 @@
       </c>
     </row>
     <row r="114" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+      <c r="A114" s="4"/>
       <c r="B114">
         <f t="shared" si="7"/>
         <v>112</v>
@@ -48756,7 +48764,7 @@
       </c>
     </row>
     <row r="115" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="4"/>
       <c r="B115">
         <f t="shared" si="7"/>
         <v>113</v>
@@ -48770,7 +48778,7 @@
       <c r="E115" t="s">
         <v>1</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F115" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G115">
@@ -49180,7 +49188,7 @@
       </c>
     </row>
     <row r="116" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="4"/>
       <c r="B116">
         <f t="shared" si="7"/>
         <v>114</v>
@@ -49194,7 +49202,7 @@
       <c r="E116" t="s">
         <v>1</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G116">
@@ -49604,7 +49612,7 @@
       </c>
     </row>
     <row r="117" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="4"/>
       <c r="B117">
         <f t="shared" si="7"/>
         <v>115</v>
@@ -50028,7 +50036,7 @@
       </c>
     </row>
     <row r="118" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+      <c r="A118" s="4"/>
       <c r="B118">
         <f t="shared" si="7"/>
         <v>116</v>
@@ -50452,7 +50460,7 @@
       </c>
     </row>
     <row r="119" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
+      <c r="A119" s="4"/>
       <c r="B119">
         <f t="shared" si="7"/>
         <v>117</v>
@@ -50876,7 +50884,7 @@
       </c>
     </row>
     <row r="120" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
+      <c r="A120" s="4"/>
       <c r="B120">
         <f t="shared" si="7"/>
         <v>118</v>
@@ -51300,7 +51308,7 @@
       </c>
     </row>
     <row r="121" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
+      <c r="A121" s="4"/>
       <c r="B121">
         <f t="shared" si="7"/>
         <v>119</v>
@@ -51724,7 +51732,7 @@
       </c>
     </row>
     <row r="122" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+      <c r="A122" s="4"/>
       <c r="B122">
         <f t="shared" si="7"/>
         <v>120</v>
@@ -52148,7 +52156,7 @@
       </c>
     </row>
     <row r="123" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
+      <c r="A123" s="4"/>
       <c r="B123">
         <f t="shared" si="7"/>
         <v>121</v>
@@ -52572,7 +52580,7 @@
       </c>
     </row>
     <row r="124" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+      <c r="A124" s="4"/>
       <c r="B124">
         <f t="shared" si="7"/>
         <v>122</v>
@@ -52996,7 +53004,7 @@
       </c>
     </row>
     <row r="125" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
+      <c r="A125" s="4"/>
       <c r="B125">
         <f t="shared" si="7"/>
         <v>123</v>
@@ -53420,7 +53428,7 @@
       </c>
     </row>
     <row r="126" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+      <c r="A126" s="4"/>
       <c r="B126">
         <f t="shared" si="7"/>
         <v>124</v>
@@ -53844,7 +53852,7 @@
       </c>
     </row>
     <row r="127" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+      <c r="A127" s="4"/>
       <c r="B127">
         <f t="shared" si="7"/>
         <v>125</v>
@@ -54268,7 +54276,7 @@
       </c>
     </row>
     <row r="128" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
+      <c r="A128" s="4"/>
       <c r="B128">
         <f t="shared" si="7"/>
         <v>126</v>
@@ -54692,7 +54700,7 @@
       </c>
     </row>
     <row r="129" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
+      <c r="A129" s="4"/>
       <c r="B129">
         <f t="shared" si="7"/>
         <v>127</v>
@@ -55116,7 +55124,7 @@
       </c>
     </row>
     <row r="130" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
+      <c r="A130" s="4"/>
       <c r="B130">
         <f t="shared" si="7"/>
         <v>128</v>
@@ -55540,7 +55548,7 @@
       </c>
     </row>
     <row r="131" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
+      <c r="A131" s="4"/>
       <c r="B131">
         <f t="shared" si="7"/>
         <v>129</v>
@@ -55964,7 +55972,7 @@
       </c>
     </row>
     <row r="132" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
+      <c r="A132" s="4"/>
       <c r="B132">
         <f t="shared" ref="B132:B141" si="8">B131+1</f>
         <v>130</v>
@@ -56388,399 +56396,399 @@
       </c>
     </row>
     <row r="133" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
+      <c r="A133" s="4"/>
       <c r="B133">
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
-      <c r="C133" s="5">
-        <v>1</v>
-      </c>
-      <c r="D133" s="5">
-        <v>1</v>
-      </c>
-      <c r="E133" s="5">
-        <v>1</v>
-      </c>
-      <c r="F133" s="5">
-        <v>1</v>
-      </c>
-      <c r="G133" s="5">
-        <v>1</v>
-      </c>
-      <c r="H133" s="5">
-        <v>1</v>
-      </c>
-      <c r="I133" s="5">
-        <v>1</v>
-      </c>
-      <c r="J133" s="5">
-        <v>1</v>
-      </c>
-      <c r="K133" s="5">
-        <v>1</v>
-      </c>
-      <c r="L133" s="5">
-        <v>1</v>
-      </c>
-      <c r="M133" s="5">
-        <v>1</v>
-      </c>
-      <c r="N133" s="5">
-        <v>1</v>
-      </c>
-      <c r="O133" s="5">
-        <v>1</v>
-      </c>
-      <c r="P133" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="5">
-        <v>1</v>
-      </c>
-      <c r="R133" s="5">
-        <v>1</v>
-      </c>
-      <c r="S133" s="5">
-        <v>1</v>
-      </c>
-      <c r="T133" s="5">
-        <v>1</v>
-      </c>
-      <c r="U133" s="5">
-        <v>1</v>
-      </c>
-      <c r="V133" s="5">
-        <v>1</v>
-      </c>
-      <c r="W133" s="5">
-        <v>1</v>
-      </c>
-      <c r="X133" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y133" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AP133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AR133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AS133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AV133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AX133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AY133" s="5">
-        <v>1</v>
-      </c>
-      <c r="AZ133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BA133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BB133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BC133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BD133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BE133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BF133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BG133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BH133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BI133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BJ133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BK133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BL133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BM133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BN133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BO133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BP133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BQ133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BR133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BS133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BT133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BU133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BV133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BW133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BX133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BY133" s="5">
-        <v>1</v>
-      </c>
-      <c r="BZ133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CA133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CB133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CC133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CD133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CE133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CF133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CG133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CH133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CI133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CJ133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CK133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CL133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CM133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CN133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CO133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CP133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CQ133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CR133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CS133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CT133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CU133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CV133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CW133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CX133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CY133" s="5">
-        <v>1</v>
-      </c>
-      <c r="CZ133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DA133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DB133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DC133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DD133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DE133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DF133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DG133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DH133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DI133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DJ133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DK133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DL133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DM133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DN133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DO133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DP133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DQ133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DR133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DS133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DT133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DU133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DV133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DW133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DX133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DY133" s="5">
-        <v>1</v>
-      </c>
-      <c r="DZ133" s="5">
-        <v>1</v>
-      </c>
-      <c r="EA133" s="5">
-        <v>1</v>
-      </c>
-      <c r="EB133" s="5">
+      <c r="C133" s="2">
+        <v>1</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1</v>
+      </c>
+      <c r="F133" s="2">
+        <v>1</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2">
+        <v>1</v>
+      </c>
+      <c r="I133" s="2">
+        <v>1</v>
+      </c>
+      <c r="J133" s="2">
+        <v>1</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1</v>
+      </c>
+      <c r="L133" s="2">
+        <v>1</v>
+      </c>
+      <c r="M133" s="2">
+        <v>1</v>
+      </c>
+      <c r="N133" s="2">
+        <v>1</v>
+      </c>
+      <c r="O133" s="2">
+        <v>1</v>
+      </c>
+      <c r="P133" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>1</v>
+      </c>
+      <c r="R133" s="2">
+        <v>1</v>
+      </c>
+      <c r="S133" s="2">
+        <v>1</v>
+      </c>
+      <c r="T133" s="2">
+        <v>1</v>
+      </c>
+      <c r="U133" s="2">
+        <v>1</v>
+      </c>
+      <c r="V133" s="2">
+        <v>1</v>
+      </c>
+      <c r="W133" s="2">
+        <v>1</v>
+      </c>
+      <c r="X133" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y133" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY133" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CA133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CB133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CC133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CD133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CG133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CJ133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CK133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CO133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CP133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CQ133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CR133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CS133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CT133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CU133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CV133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CW133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CX133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CY133" s="2">
+        <v>1</v>
+      </c>
+      <c r="CZ133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DA133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DB133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DC133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DD133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DE133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DF133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DG133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DH133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DI133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DJ133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DK133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DL133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DM133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DN133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DP133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DQ133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DR133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DS133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DT133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DU133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DV133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DW133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DX133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DY133" s="2">
+        <v>1</v>
+      </c>
+      <c r="DZ133" s="2">
+        <v>1</v>
+      </c>
+      <c r="EA133" s="2">
+        <v>1</v>
+      </c>
+      <c r="EB133" s="2">
         <v>1</v>
       </c>
       <c r="EC133" t="s">
@@ -56812,7 +56820,7 @@
       </c>
     </row>
     <row r="134" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
+      <c r="A134" s="4"/>
       <c r="B134">
         <f t="shared" si="8"/>
         <v>132</v>
@@ -57236,7 +57244,7 @@
       </c>
     </row>
     <row r="135" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
+      <c r="A135" s="4"/>
       <c r="B135">
         <f t="shared" si="8"/>
         <v>133</v>
@@ -57660,7 +57668,7 @@
       </c>
     </row>
     <row r="136" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
+      <c r="A136" s="4"/>
       <c r="B136">
         <f t="shared" si="8"/>
         <v>134</v>
@@ -58084,7 +58092,7 @@
       </c>
     </row>
     <row r="137" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
+      <c r="A137" s="4"/>
       <c r="B137">
         <f t="shared" si="8"/>
         <v>135</v>
@@ -58508,7 +58516,7 @@
       </c>
     </row>
     <row r="138" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
+      <c r="A138" s="4"/>
       <c r="B138">
         <f t="shared" si="8"/>
         <v>136</v>
@@ -58932,7 +58940,7 @@
       </c>
     </row>
     <row r="139" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
+      <c r="A139" s="4"/>
       <c r="B139">
         <f t="shared" si="8"/>
         <v>137</v>
@@ -59356,7 +59364,7 @@
       </c>
     </row>
     <row r="140" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
+      <c r="A140" s="4"/>
       <c r="B140">
         <f t="shared" si="8"/>
         <v>138</v>
@@ -59780,7 +59788,7 @@
       </c>
     </row>
     <row r="141" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
+      <c r="A141" s="4"/>
       <c r="B141">
         <f t="shared" si="8"/>
         <v>139</v>
